--- a/data/n2v/tables/model-1-1536-20230829-31.xlsx
+++ b/data/n2v/tables/model-1-1536-20230829-31.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         </is>
       </c>
       <c r="C736" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="C869" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         </is>
       </c>
       <c r="C912" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         </is>
       </c>
       <c r="C932" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         </is>
       </c>
       <c r="C948" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         </is>
       </c>
       <c r="C969" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         </is>
       </c>
       <c r="C986" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         </is>
       </c>
       <c r="C990" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1082" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1084" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1086" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1087" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1089" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1090" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1094" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1101" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1105" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1107" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1110" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1113" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1117" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1119" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1123" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1124" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         </is>
       </c>
       <c r="C1126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1126" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1134" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1135" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1146" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         </is>
       </c>
       <c r="C1152" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1152" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         </is>
       </c>
       <c r="C1155" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1155" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         </is>
       </c>
       <c r="C1156" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1156" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1157" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         </is>
       </c>
       <c r="C1159" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1159" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         </is>
       </c>
       <c r="C1164" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1164" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1165" t="inlineStr">
         <is>
@@ -21412,7 +21412,7 @@
         </is>
       </c>
       <c r="C1166" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1166" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         </is>
       </c>
       <c r="C1168" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1168" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1171" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         </is>
       </c>
       <c r="C1175" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1175" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1177" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="C1179" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1179" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1185" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         </is>
       </c>
       <c r="C1187" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1187" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         </is>
       </c>
       <c r="C1188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1188" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         </is>
       </c>
       <c r="C1191" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1191" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="C1196" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1196" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         </is>
       </c>
       <c r="C1198" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1198" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         </is>
       </c>
       <c r="C1208" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1208" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1209" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         </is>
       </c>
       <c r="C1210" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1210" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         </is>
       </c>
       <c r="C1211" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1211" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         </is>
       </c>
       <c r="C1212" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1212" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         </is>
       </c>
       <c r="C1217" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1217" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         </is>
       </c>
       <c r="C1218" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1218" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         </is>
       </c>
       <c r="C1223" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1223" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         </is>
       </c>
       <c r="C1224" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1224" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1235" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1236" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         </is>
       </c>
       <c r="C1238" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1238" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         </is>
       </c>
       <c r="C1240" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1240" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         </is>
       </c>
       <c r="C1244" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1244" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1245" t="inlineStr">
         <is>
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1246" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1247" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         </is>
       </c>
       <c r="C1248" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1248" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1249" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         </is>
       </c>
       <c r="C1251" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1251" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         </is>
       </c>
       <c r="C1252" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1252" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         </is>
       </c>
       <c r="C1253" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1253" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="C1254" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1254" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1258" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         </is>
       </c>
       <c r="C1263" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1263" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="C1269" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1269" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1270" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         </is>
       </c>
       <c r="C1273" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1273" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         </is>
       </c>
       <c r="C1274" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1274" t="inlineStr">
         <is>
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="C1279" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1279" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         </is>
       </c>
       <c r="C1283" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1283" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         </is>
       </c>
       <c r="C1285" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1285" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         </is>
       </c>
       <c r="C1286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1286" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         </is>
       </c>
       <c r="C1289" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1289" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         </is>
       </c>
       <c r="C1290" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1290" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         </is>
       </c>
       <c r="C1297" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1297" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         </is>
       </c>
       <c r="C1298" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1298" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1300" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1301" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1303" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1304" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="C1308" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1308" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="C1309" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1309" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         </is>
       </c>
       <c r="C1310" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1310" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         </is>
       </c>
       <c r="C1311" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1311" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         </is>
       </c>
       <c r="C1312" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1312" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         </is>
       </c>
       <c r="C1315" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1315" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         </is>
       </c>
       <c r="C1316" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1316" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         </is>
       </c>
       <c r="C1319" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1319" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         </is>
       </c>
       <c r="C1320" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1320" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         </is>
       </c>
       <c r="C1321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1321" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         </is>
       </c>
       <c r="C1324" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1324" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         </is>
       </c>
       <c r="C1328" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1328" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1333" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         </is>
       </c>
       <c r="C1334" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1334" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1335" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1337" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1338" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         </is>
       </c>
       <c r="C1341" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1341" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         </is>
       </c>
       <c r="C1342" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1342" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="C1343" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1343" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         </is>
       </c>
       <c r="C1344" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1344" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         </is>
       </c>
       <c r="C1345" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1345" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1347" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="C1349" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1349" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         </is>
       </c>
       <c r="C1350" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1350" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         </is>
       </c>
       <c r="C1351" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1351" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1352" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1354" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         </is>
       </c>
       <c r="C1356" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1356" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         </is>
       </c>
       <c r="C1357" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1357" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         </is>
       </c>
       <c r="C1359" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1359" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         </is>
       </c>
       <c r="C1360" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1360" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         </is>
       </c>
       <c r="C1361" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1361" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         </is>
       </c>
       <c r="C1364" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1364" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         </is>
       </c>
       <c r="C1367" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1367" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         </is>
       </c>
       <c r="C1368" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1368" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         </is>
       </c>
       <c r="C1369" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1369" t="inlineStr">
         <is>
@@ -25084,7 +25084,7 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1370" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         </is>
       </c>
       <c r="C1371" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1371" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         </is>
       </c>
       <c r="C1372" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1372" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         </is>
       </c>
       <c r="C1373" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1373" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         </is>
       </c>
       <c r="C1376" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1376" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="C1379" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1379" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         </is>
       </c>
       <c r="C1381" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1381" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         </is>
       </c>
       <c r="C1383" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1383" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1384" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         </is>
       </c>
       <c r="C1386" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1386" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="C1387" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1387" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="C1389" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1389" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         </is>
       </c>
       <c r="C1390" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1390" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         </is>
       </c>
       <c r="C1394" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1394" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         </is>
       </c>
       <c r="C1395" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1395" t="inlineStr">
         <is>
@@ -25660,7 +25660,7 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1402" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1406" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         </is>
       </c>
       <c r="C1409" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1409" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         </is>
       </c>
       <c r="C1410" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1410" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         </is>
       </c>
       <c r="C1412" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1412" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1415" t="inlineStr">
         <is>
@@ -25966,7 +25966,7 @@
         </is>
       </c>
       <c r="C1419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1419" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="C1422" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1422" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         </is>
       </c>
       <c r="C1423" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1423" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         </is>
       </c>
       <c r="C1428" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1428" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1429" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         </is>
       </c>
       <c r="C1435" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1435" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         </is>
       </c>
       <c r="C1436" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1436" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         </is>
       </c>
       <c r="C1437" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1437" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         </is>
       </c>
       <c r="C1440" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1440" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         </is>
       </c>
       <c r="C1442" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1442" t="inlineStr">
         <is>
@@ -26578,7 +26578,7 @@
         </is>
       </c>
       <c r="C1453" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1453" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         </is>
       </c>
       <c r="C1456" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1456" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         </is>
       </c>
       <c r="C1458" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1458" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         </is>
       </c>
       <c r="C1459" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1459" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         </is>
       </c>
       <c r="C1464" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1464" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         </is>
       </c>
       <c r="C1465" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1465" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         </is>
       </c>
       <c r="C1471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1471" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         </is>
       </c>
       <c r="C1473" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1473" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         </is>
       </c>
       <c r="C1478" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1478" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         </is>
       </c>
       <c r="C1480" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         </is>
       </c>
       <c r="C1483" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1483" t="inlineStr">
         <is>
@@ -27208,7 +27208,7 @@
         </is>
       </c>
       <c r="C1488" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1488" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         </is>
       </c>
       <c r="C1491" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1491" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         </is>
       </c>
       <c r="C1497" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1497" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         </is>
       </c>
       <c r="C1503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1503" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         </is>
       </c>
       <c r="C1507" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1507" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         </is>
       </c>
       <c r="C1512" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1512" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         </is>
       </c>
       <c r="C1516" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1516" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         </is>
       </c>
       <c r="C1520" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1520" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         </is>
       </c>
       <c r="C1522" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1522" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         </is>
       </c>
       <c r="C1525" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1525" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         </is>
       </c>
       <c r="C1527" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1527" t="inlineStr">
         <is>
@@ -28018,7 +28018,7 @@
         </is>
       </c>
       <c r="C1533" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1533" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         </is>
       </c>
       <c r="C1534" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1534" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         </is>
       </c>
       <c r="C1547" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1547" t="inlineStr">
         <is>
@@ -28288,7 +28288,7 @@
         </is>
       </c>
       <c r="C1548" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1548" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         </is>
       </c>
       <c r="C1552" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1552" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         </is>
       </c>
       <c r="C1553" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1553" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1554" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         </is>
       </c>
       <c r="C1579" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1579" t="inlineStr">
         <is>
@@ -28864,7 +28864,7 @@
         </is>
       </c>
       <c r="C1580" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1580" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         </is>
       </c>
       <c r="C1592" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1592" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         </is>
       </c>
       <c r="C1597" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1597" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         </is>
       </c>
       <c r="C1602" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1602" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         </is>
       </c>
       <c r="C1607" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1607" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         </is>
       </c>
       <c r="C1611" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1611" t="inlineStr">
         <is>
